--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F765063-1F71-4B2A-861A-1A01AA456F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EA3C6-1F53-494F-890C-827BF0DAA0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="3975" windowWidth="21585" windowHeight="5670" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -59,57 +59,6 @@
     <t>Difference in %</t>
   </si>
   <si>
-    <t>2023 LMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
-    <t>2023 Total MV</t>
-  </si>
-  <si>
-    <t>2023 LAV</t>
-  </si>
-  <si>
-    <t>2023 BAV</t>
-  </si>
-  <si>
-    <t>2023 Total AV</t>
-  </si>
-  <si>
-    <t>2023 % of 2024</t>
-  </si>
-  <si>
-    <t>2024 LMV</t>
-  </si>
-  <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2024 Total MV</t>
-  </si>
-  <si>
-    <t>2024 LAV</t>
-  </si>
-  <si>
-    <t>2024 BAV</t>
-  </si>
-  <si>
-    <t>2024 Total AV</t>
-  </si>
-  <si>
-    <t>2023 Occupancy %</t>
-  </si>
-  <si>
-    <t>2024 Occupancy %</t>
-  </si>
-  <si>
-    <t>2023 COMDAT VAL</t>
-  </si>
-  <si>
-    <t>2024 COMDAT VAL</t>
-  </si>
-  <si>
     <t>Card Code</t>
   </si>
   <si>
@@ -117,6 +66,57 @@
   </si>
   <si>
     <t>TOWNSHIP</t>
+  </si>
+  <si>
+    <t>Prior Year Occupancy %</t>
+  </si>
+  <si>
+    <t>Prior Year COMDAT VAL</t>
+  </si>
+  <si>
+    <t>Prior Year LMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year Total MV</t>
+  </si>
+  <si>
+    <t>Prior Year LAV</t>
+  </si>
+  <si>
+    <t>Prior Year BAV</t>
+  </si>
+  <si>
+    <t>Prior Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year BAV</t>
+  </si>
+  <si>
+    <t>Curr. Year LAV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total MV</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Curr. Year LMV</t>
+  </si>
+  <si>
+    <t>Curr. Year COMDAT VAL</t>
+  </si>
+  <si>
+    <t>Prior Year % of Curr. Year</t>
+  </si>
+  <si>
+    <t>Curr. Year Occupancy %</t>
   </si>
 </sst>
 </file>
@@ -226,9 +226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +266,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -372,7 +372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,57 +524,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB84B27-B683-4D82-A145-2C22439B7F41}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -592,61 +594,61 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EA3C6-1F53-494F-890C-827BF0DAA0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEDDAA-77F2-4FDD-B86C-89A7487000DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB84B27-B683-4D82-A145-2C22439B7F41}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
     <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.21875" customWidth="1"/>
     <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEDDAA-77F2-4FDD-B86C-89A7487000DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773105A-AF66-4833-B583-D3E8FA1A7D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
@@ -524,9 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB84B27-B683-4D82-A145-2C22439B7F41}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773105A-AF66-4833-B583-D3E8FA1A7D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB96FC9-3F95-4EC4-8C82-75361DB211F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
@@ -537,21 +537,23 @@
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="22" max="22" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
     <col min="27" max="27" width="17.21875" customWidth="1"/>
     <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_comdat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F765063-1F71-4B2A-861A-1A01AA456F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB96FC9-3F95-4EC4-8C82-75361DB211F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="3975" windowWidth="21585" windowHeight="5670" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -59,57 +59,6 @@
     <t>Difference in %</t>
   </si>
   <si>
-    <t>2023 LMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
-    <t>2023 Total MV</t>
-  </si>
-  <si>
-    <t>2023 LAV</t>
-  </si>
-  <si>
-    <t>2023 BAV</t>
-  </si>
-  <si>
-    <t>2023 Total AV</t>
-  </si>
-  <si>
-    <t>2023 % of 2024</t>
-  </si>
-  <si>
-    <t>2024 LMV</t>
-  </si>
-  <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2024 Total MV</t>
-  </si>
-  <si>
-    <t>2024 LAV</t>
-  </si>
-  <si>
-    <t>2024 BAV</t>
-  </si>
-  <si>
-    <t>2024 Total AV</t>
-  </si>
-  <si>
-    <t>2023 Occupancy %</t>
-  </si>
-  <si>
-    <t>2024 Occupancy %</t>
-  </si>
-  <si>
-    <t>2023 COMDAT VAL</t>
-  </si>
-  <si>
-    <t>2024 COMDAT VAL</t>
-  </si>
-  <si>
     <t>Card Code</t>
   </si>
   <si>
@@ -117,6 +66,57 @@
   </si>
   <si>
     <t>TOWNSHIP</t>
+  </si>
+  <si>
+    <t>Prior Year Occupancy %</t>
+  </si>
+  <si>
+    <t>Prior Year COMDAT VAL</t>
+  </si>
+  <si>
+    <t>Prior Year LMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year Total MV</t>
+  </si>
+  <si>
+    <t>Prior Year LAV</t>
+  </si>
+  <si>
+    <t>Prior Year BAV</t>
+  </si>
+  <si>
+    <t>Prior Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year BAV</t>
+  </si>
+  <si>
+    <t>Curr. Year LAV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total MV</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Curr. Year LMV</t>
+  </si>
+  <si>
+    <t>Curr. Year COMDAT VAL</t>
+  </si>
+  <si>
+    <t>Prior Year % of Curr. Year</t>
+  </si>
+  <si>
+    <t>Curr. Year Occupancy %</t>
   </si>
 </sst>
 </file>
@@ -226,9 +226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +266,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -372,7 +372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,55 +526,57 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="22" max="22" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="17.21875" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -592,61 +594,61 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
